--- a/medicine/Psychotrope/Malvasia_nera_di_Brindisi/Malvasia_nera_di_Brindisi.xlsx
+++ b/medicine/Psychotrope/Malvasia_nera_di_Brindisi/Malvasia_nera_di_Brindisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La malvasia nera di Brindisi  est un cépage italien de raisins noirs de la grande famille de Malvasia.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Malvasia nera di Brindisi provient du sud de l’Italie.
 Il est classé cépage d'appoint en DOC San Vito di Luzzi. Il est classé recommandé en province de Grosseto et province de Lucques dans la région de la Toscane et en province de Bari, province de Brindisi, province de Foggia, province de Lecce et province de Tarente dans la région des Pouilles. En 1998, sa culture couvrait une superficie de 4 516 ha.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses, jaunâtre.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque: 30  jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est conique. La chair est juteuse et d'une saveur aromatique. Le cépage est de bonne vigueur. Il admet une bonne résistance au froid. Sa production est abondante et constante. Il est très sensible à l'oïdium mais plus sensible au mildiou et à la pourriture grise. Elle est généralement vinifiée avec du negroamaro et du susamaniello, apportant le parfum spécifique.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La malvasia nera di Brindisi est connu sous le nom de malvasia di Bitondo, mavasia di Trani, malvasia negra, malvasia nera di Bari, malvasia nera di candia
 </t>
